--- a/doc/пакеты .xlsx
+++ b/doc/пакеты .xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\knpn-git\cansat-KNPN-S\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D5A8E1-7C37-44C8-8461-E545E6FD80FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22581C56-B8D8-4F54-B426-2A673058EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{635744E9-D851-4F4A-A3F8-7136D4D3AA93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{635744E9-D851-4F4A-A3F8-7136D4D3AA93}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Байт</t>
   </si>
@@ -212,13 +215,196 @@
   </si>
   <si>
     <t>52</t>
+  </si>
+  <si>
+    <t>Измерения</t>
+  </si>
+  <si>
+    <t>Диапазон измерений</t>
+  </si>
+  <si>
+    <t>Точность измерения</t>
+  </si>
+  <si>
+    <t>Частота измерения</t>
+  </si>
+  <si>
+    <t>Объем данных, байт</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>температура</t>
+  </si>
+  <si>
+    <t>давление</t>
+  </si>
+  <si>
+    <t>влажность</t>
+  </si>
+  <si>
+    <t>высота</t>
+  </si>
+  <si>
+    <t>LSM6DS3</t>
+  </si>
+  <si>
+    <t>акселерометр</t>
+  </si>
+  <si>
+    <t>гироскоп</t>
+  </si>
+  <si>
+    <t>LI3MDL</t>
+  </si>
+  <si>
+    <t>магнитометр</t>
+  </si>
+  <si>
+    <t>NE08m</t>
+  </si>
+  <si>
+    <t>широта</t>
+  </si>
+  <si>
+    <t>долгота</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>фоторезистор</t>
+  </si>
+  <si>
+    <t>сопротивление</t>
+  </si>
+  <si>
+    <t>состояние</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>0% - 100%</t>
+  </si>
+  <si>
+    <t>30 - 110 кПа</t>
+  </si>
+  <si>
+    <t>-40 - +85 град</t>
+  </si>
+  <si>
+    <t>100Па (1м)</t>
+  </si>
+  <si>
+    <t>0,5 град</t>
+  </si>
+  <si>
+    <t>157Гц - 26,32Гц</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12-300К</t>
+  </si>
+  <si>
+    <t>28,6Гц</t>
+  </si>
+  <si>
+    <t>16g</t>
+  </si>
+  <si>
+    <t>40 mg</t>
+  </si>
+  <si>
+    <t>104,2Гц</t>
+  </si>
+  <si>
+    <t>3 град/с</t>
+  </si>
+  <si>
+    <t>2000 град/с</t>
+  </si>
+  <si>
+    <t>16 гаусс</t>
+  </si>
+  <si>
+    <t>1 гаусс</t>
+  </si>
+  <si>
+    <t>80Гц</t>
+  </si>
+  <si>
+    <t>10Гц</t>
+  </si>
+  <si>
+    <t>0 - 50000м</t>
+  </si>
+  <si>
+    <t>2,5м</t>
+  </si>
+  <si>
+    <t>Madgwick</t>
+  </si>
+  <si>
+    <t>q1,q2,q3,q4</t>
+  </si>
+  <si>
+    <t>40Гц</t>
+  </si>
+  <si>
+    <t>Радиомодуль</t>
+  </si>
+  <si>
+    <t>Кабель</t>
+  </si>
+  <si>
+    <t>Антенна</t>
+  </si>
+  <si>
+    <t>Воздух</t>
+  </si>
+  <si>
+    <t>дБм</t>
+  </si>
+  <si>
+    <t>Pпрд</t>
+  </si>
+  <si>
+    <t>дБ</t>
+  </si>
+  <si>
+    <t>Lпрд</t>
+  </si>
+  <si>
+    <t>дБи</t>
+  </si>
+  <si>
+    <t>Gпрд</t>
+  </si>
+  <si>
+    <t>ΣL</t>
+  </si>
+  <si>
+    <t>Gпрм</t>
+  </si>
+  <si>
+    <t>Lпрм</t>
+  </si>
+  <si>
+    <t>Pmin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +437,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -268,12 +461,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,20 +630,87 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E7159-C806-4FB7-A1B6-C8D80022BAD9}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="241" workbookViewId="0">
+    <sheetView zoomScale="153" zoomScaleNormal="241" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -653,32 +1045,32 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="16"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:60" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -716,28 +1108,28 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -806,32 +1198,32 @@
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
       <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:60" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -846,18 +1238,18 @@
         <v>7</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="14" t="s">
         <v>25</v>
       </c>
@@ -869,10 +1261,10 @@
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
@@ -894,10 +1286,10 @@
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,16 +1312,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B4:G4"/>
@@ -946,6 +1328,16 @@
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H1:K1"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
   </mergeCells>
@@ -954,6 +1346,799 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7046-D8CA-4CBA-A057-6B72128F9125}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="34">
+        <v>2</v>
+      </c>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="35">
+        <v>4</v>
+      </c>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="34">
+        <v>2</v>
+      </c>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="33">
+        <v>6</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33">
+        <v>6</v>
+      </c>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33">
+        <v>6</v>
+      </c>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="33">
+        <v>4</v>
+      </c>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="33">
+        <v>4</v>
+      </c>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="33">
+        <v>4</v>
+      </c>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="33">
+        <v>2</v>
+      </c>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35">
+        <v>16</v>
+      </c>
+      <c r="N16" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="K10:L13"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H10:J12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="M1:N3"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A10:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:G3"/>
+    <mergeCell ref="H1:J3"/>
+    <mergeCell ref="K1:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D8E398-21DE-477A-85FD-AC0D6D622C6F}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="35">
+        <v>20</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35">
+        <v>0</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35">
+        <v>-102</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35">
+        <v>8</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35">
+        <v>-2</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35">
+        <v>117</v>
+      </c>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>22</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35">
+        <v>-102</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35">
+        <v>8</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>-2</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35">
+        <v>117</v>
+      </c>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C460C84D-5023-4E30-989A-44A078FFAB14}">
   <dimension ref="A2:AS15"/>
   <sheetViews>
@@ -973,28 +2158,28 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:45" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1028,22 +2213,22 @@
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="10" t="s">
         <v>38</v>
       </c>
@@ -1131,32 +2316,32 @@
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1176,36 +2361,36 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1225,10 +2410,10 @@
       <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1252,34 +2437,34 @@
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
+      <c r="O12" s="15"/>
+      <c r="P12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="15"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -1326,20 +2511,20 @@
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="6" t="s">
         <v>45</v>
       </c>
@@ -1368,36 +2553,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="B14:E14"/>
@@ -1412,6 +2567,36 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
